--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2483593333333333</v>
+        <v>0.03650533333333333</v>
       </c>
       <c r="N2">
-        <v>0.745078</v>
+        <v>0.109516</v>
       </c>
       <c r="O2">
-        <v>0.4038251517166735</v>
+        <v>0.06499111027765844</v>
       </c>
       <c r="P2">
-        <v>0.4038251517166735</v>
+        <v>0.06499111027765843</v>
       </c>
       <c r="Q2">
-        <v>0.3275780959544445</v>
+        <v>0.0007963273413333333</v>
       </c>
       <c r="R2">
-        <v>2.94820286359</v>
+        <v>0.007166946072</v>
       </c>
       <c r="S2">
-        <v>0.2299036547025375</v>
+        <v>0.006551943468219674</v>
       </c>
       <c r="T2">
-        <v>0.2299036547025375</v>
+        <v>0.006551943468219672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.021814</v>
+      </c>
+      <c r="H3">
+        <v>0.065442</v>
+      </c>
+      <c r="I3">
+        <v>0.1008129179549036</v>
+      </c>
+      <c r="J3">
+        <v>0.1008129179549036</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>1.318968333333333</v>
-      </c>
-      <c r="H3">
-        <v>3.956905</v>
-      </c>
-      <c r="I3">
-        <v>0.5693148475898785</v>
-      </c>
-      <c r="J3">
-        <v>0.5693148475898785</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.3666576666666666</v>
+        <v>0.2483593333333333</v>
       </c>
       <c r="N3">
-        <v>1.099973</v>
+        <v>0.745078</v>
       </c>
       <c r="O3">
-        <v>0.5961748482833266</v>
+        <v>0.4421586477177508</v>
       </c>
       <c r="P3">
-        <v>0.5961748482833266</v>
+        <v>0.4421586477177507</v>
       </c>
       <c r="Q3">
-        <v>0.4836098515072221</v>
+        <v>0.005417710497333333</v>
       </c>
       <c r="R3">
-        <v>4.352488663565</v>
+        <v>0.048759394476</v>
       </c>
       <c r="S3">
-        <v>0.339411192887341</v>
+        <v>0.04457530347542074</v>
       </c>
       <c r="T3">
-        <v>0.339411192887341</v>
+        <v>0.04457530347542073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9977960000000001</v>
+        <v>0.021814</v>
       </c>
       <c r="H4">
-        <v>2.993388</v>
+        <v>0.065442</v>
       </c>
       <c r="I4">
-        <v>0.4306851524101215</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J4">
-        <v>0.4306851524101215</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2483593333333333</v>
+        <v>0.2768326666666667</v>
       </c>
       <c r="N4">
-        <v>0.745078</v>
+        <v>0.830498</v>
       </c>
       <c r="O4">
-        <v>0.4038251517166735</v>
+        <v>0.4928502420045909</v>
       </c>
       <c r="P4">
-        <v>0.4038251517166735</v>
+        <v>0.4928502420045908</v>
       </c>
       <c r="Q4">
-        <v>0.2478119493626667</v>
+        <v>0.006038827790666667</v>
       </c>
       <c r="R4">
-        <v>2.230307544264</v>
+        <v>0.05434945011599999</v>
       </c>
       <c r="S4">
-        <v>0.173921497014136</v>
+        <v>0.04968567101126322</v>
       </c>
       <c r="T4">
-        <v>0.173921497014136</v>
+        <v>0.04968567101126321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H5">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I5">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J5">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3666576666666666</v>
+        <v>0.03650533333333333</v>
       </c>
       <c r="N5">
-        <v>1.099973</v>
+        <v>0.109516</v>
       </c>
       <c r="O5">
-        <v>0.5961748482833266</v>
+        <v>0.06499111027765844</v>
       </c>
       <c r="P5">
-        <v>0.5961748482833266</v>
+        <v>0.06499111027765843</v>
       </c>
       <c r="Q5">
-        <v>0.3658495531693333</v>
+        <v>0.007102733190666667</v>
       </c>
       <c r="R5">
-        <v>3.292645978524</v>
+        <v>0.06392459871600001</v>
       </c>
       <c r="S5">
-        <v>0.2567636553959856</v>
+        <v>0.05843916680943877</v>
       </c>
       <c r="T5">
-        <v>0.2567636553959856</v>
+        <v>0.05843916680943875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.194567</v>
+      </c>
+      <c r="H6">
+        <v>0.583701</v>
+      </c>
+      <c r="I6">
+        <v>0.8991870820450963</v>
+      </c>
+      <c r="J6">
+        <v>0.8991870820450963</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2483593333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.745078</v>
+      </c>
+      <c r="O6">
+        <v>0.4421586477177508</v>
+      </c>
+      <c r="P6">
+        <v>0.4421586477177507</v>
+      </c>
+      <c r="Q6">
+        <v>0.04832253040866667</v>
+      </c>
+      <c r="R6">
+        <v>0.434902773678</v>
+      </c>
+      <c r="S6">
+        <v>0.3975833442423301</v>
+      </c>
+      <c r="T6">
+        <v>0.3975833442423299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.194567</v>
+      </c>
+      <c r="H7">
+        <v>0.583701</v>
+      </c>
+      <c r="I7">
+        <v>0.8991870820450963</v>
+      </c>
+      <c r="J7">
+        <v>0.8991870820450963</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2768326666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.830498</v>
+      </c>
+      <c r="O7">
+        <v>0.4928502420045909</v>
+      </c>
+      <c r="P7">
+        <v>0.4928502420045908</v>
+      </c>
+      <c r="Q7">
+        <v>0.05386250145533334</v>
+      </c>
+      <c r="R7">
+        <v>0.484762513098</v>
+      </c>
+      <c r="S7">
+        <v>0.4431645709933277</v>
+      </c>
+      <c r="T7">
+        <v>0.4431645709933276</v>
       </c>
     </row>
   </sheetData>
